--- a/Resources/仕様/確率表.xlsx
+++ b/Resources/仕様/確率表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>ミサイル</t>
     <phoneticPr fontId="1"/>
@@ -64,23 +64,6 @@
     <t>遠距離</t>
     <rPh sb="0" eb="3">
       <t>エンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中央</t>
-    <rPh sb="0" eb="2">
-      <t>チュウオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中央以外</t>
-    <rPh sb="0" eb="2">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -423,63 +406,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -487,39 +446,21 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -527,151 +468,80 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <f>SUM(B3:B8)</f>
+        <f t="shared" ref="B9:C9" si="0">SUM(B3:B8)</f>
         <v>100</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="0">SUM(C3:C8)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:G9" si="1">SUM(F3:F8)</f>
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -679,99 +549,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17">
         <v>20</v>
       </c>
-      <c r="G17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
         <v>30</v>
       </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:C19" si="2">SUM(B13:B18)</f>
+        <f t="shared" ref="B19:C19" si="1">SUM(B13:B18)</f>
         <v>100</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19:G19" si="3">SUM(F13:F18)</f>
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
